--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33D8B6-5215-47B6-883F-52DDA10822C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CCF3A-071E-492E-A8AE-A72507E3CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Insights Histplots" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA Grupos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Evidente</t>
   </si>
@@ -156,13 +158,85 @@
   </si>
   <si>
     <t>Insight</t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Renda média alta</t>
+  </si>
+  <si>
+    <t>Renda média baixa</t>
+  </si>
+  <si>
+    <t>Não tem filhos</t>
+  </si>
+  <si>
+    <t>Tem filhos</t>
+  </si>
+  <si>
+    <t>Gasta mais em compras</t>
+  </si>
+  <si>
+    <t>Faz mais compras</t>
+  </si>
+  <si>
+    <t>Faz menos compras</t>
+  </si>
+  <si>
+    <t>Gasta menos em compras</t>
+  </si>
+  <si>
+    <t>Faz menos compras com desconto</t>
+  </si>
+  <si>
+    <t>Faz mais compras com desconto</t>
+  </si>
+  <si>
+    <t>Visita menos o site</t>
+  </si>
+  <si>
+    <t>Visita mais o site</t>
+  </si>
+  <si>
+    <t>Tem maior escolaridade</t>
+  </si>
+  <si>
+    <t>Tem menor escolaridade</t>
+  </si>
+  <si>
+    <t>Aceita mais campanhas</t>
+  </si>
+  <si>
+    <t>Aceita menos campanhas</t>
+  </si>
+  <si>
+    <t>Compra com mais frequência</t>
+  </si>
+  <si>
+    <t>Compra com menos frequência</t>
+  </si>
+  <si>
+    <t>É cliente a mais tempo</t>
+  </si>
+  <si>
+    <t>É cliente a menos tempo</t>
+  </si>
+  <si>
+    <t>Possui um parceiro</t>
+  </si>
+  <si>
+    <t>Não possui um parceiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +244,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,8 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,9 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,16 +633,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -854,4 +945,121 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CCF3A-071E-492E-A8AE-A72507E3CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69476D18-9106-48DD-93DD-EB09AA708C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="EDA Grupos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Evidente</t>
   </si>
@@ -230,6 +230,78 @@
   </si>
   <si>
     <t>Não possui um parceiro</t>
+  </si>
+  <si>
+    <t>Qualitativo</t>
+  </si>
+  <si>
+    <t>Quantitativo</t>
+  </si>
+  <si>
+    <t>Renda &gt;= 51287,00</t>
+  </si>
+  <si>
+    <t>Compras &gt;= 12</t>
+  </si>
+  <si>
+    <t>Gastos em compras &gt;= 397,00</t>
+  </si>
+  <si>
+    <t>Filhos = 0</t>
+  </si>
+  <si>
+    <t>Compras com desconto &lt;= 2</t>
+  </si>
+  <si>
+    <t>Visitas ao site &lt;= 6</t>
+  </si>
+  <si>
+    <t>Escolaridade != Basic</t>
+  </si>
+  <si>
+    <t>Aceitou campanhas = 1</t>
+  </si>
+  <si>
+    <t>Dias como cliente &gt;= 356</t>
+  </si>
+  <si>
+    <t>Estado civil = Single</t>
+  </si>
+  <si>
+    <t>Compras &lt; 12</t>
+  </si>
+  <si>
+    <t>Renda &lt; 51287,00</t>
+  </si>
+  <si>
+    <t>Gastos em compras &lt; 397,00</t>
+  </si>
+  <si>
+    <t>Filhos != 0</t>
+  </si>
+  <si>
+    <t>Compras com desconto &gt; 2</t>
+  </si>
+  <si>
+    <t>Visitas ao site &gt; 6</t>
+  </si>
+  <si>
+    <t>Escolaridade = Basic</t>
+  </si>
+  <si>
+    <t>Aceitou campanhas = 0</t>
+  </si>
+  <si>
+    <t>Frequência de compras &gt; 49</t>
+  </si>
+  <si>
+    <t>Frequência de compras &lt;= 49</t>
+  </si>
+  <si>
+    <t>Dias como cliente &lt; 356</t>
+  </si>
+  <si>
+    <t>Estado civil = Partner</t>
   </si>
 </sst>
 </file>
@@ -279,8 +351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,116 +1024,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.109375" customWidth="1"/>
+    <col min="1" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69476D18-9106-48DD-93DD-EB09AA708C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A09A8-51EC-4479-8AC9-9B6AED629CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Insights Histplots" sheetId="1" r:id="rId1"/>
     <sheet name="EDA Grupos" sheetId="2" r:id="rId2"/>
+    <sheet name="Clusters Grupos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Clusters Grupos'!$A$1:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
   </definedNames>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Evidente</t>
   </si>
@@ -220,12 +222,6 @@
     <t>Compra com menos frequência</t>
   </si>
   <si>
-    <t>É cliente a mais tempo</t>
-  </si>
-  <si>
-    <t>É cliente a menos tempo</t>
-  </si>
-  <si>
     <t>Possui um parceiro</t>
   </si>
   <si>
@@ -302,13 +298,88 @@
   </si>
   <si>
     <t>Estado civil = Partner</t>
+  </si>
+  <si>
+    <t>Cluster 0</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Renda alta</t>
+  </si>
+  <si>
+    <t>Renda média</t>
+  </si>
+  <si>
+    <t>Renda baixa</t>
+  </si>
+  <si>
+    <t>É cliente há mais tempo</t>
+  </si>
+  <si>
+    <t>É cliente há menos tempo</t>
+  </si>
+  <si>
+    <t>Faz muitas compras</t>
+  </si>
+  <si>
+    <t>Faz poucas compras</t>
+  </si>
+  <si>
+    <t>Gasta muito em compras</t>
+  </si>
+  <si>
+    <t>Gasta pouco em compras</t>
+  </si>
+  <si>
+    <t>Gasta moderadamente em compras</t>
+  </si>
+  <si>
+    <t>Dificilmente aceita campanhas</t>
+  </si>
+  <si>
+    <t>Aceita campanhas facilmente</t>
+  </si>
+  <si>
+    <t>Pode aceitar campanhas</t>
+  </si>
+  <si>
+    <t>Provavelmente não tem filhos</t>
+  </si>
+  <si>
+    <t>Provavelmente tem filhos</t>
+  </si>
+  <si>
+    <t>Faz muitas compras com desconto</t>
+  </si>
+  <si>
+    <t>Faz algumas compras com desconto</t>
+  </si>
+  <si>
+    <t>Faz poucas compras com desconto</t>
+  </si>
+  <si>
+    <t>Visita pouco o site</t>
+  </si>
+  <si>
+    <t>Visita muito o site</t>
+  </si>
+  <si>
+    <t>Único grupo que tem pessoas com escolaridade baixa</t>
+  </si>
+  <si>
+    <t>Alta escolaridade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +391,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,6 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,9 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,16 +1126,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,13 +1143,13 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,13 +1157,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,13 +1171,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,13 +1185,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,13 +1199,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,13 +1213,13 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,13 +1227,13 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,13 +1241,13 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1177,41 +1255,41 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1222,4 +1300,137 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A8AC-C8D4-48BC-BF06-1DD119FD1E35}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A09A8-51EC-4479-8AC9-9B6AED629CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37C666E-D92B-4463-848F-7DEADC03F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Insights Histplots" sheetId="1" r:id="rId1"/>
     <sheet name="EDA Grupos" sheetId="2" r:id="rId2"/>
     <sheet name="Clusters Grupos" sheetId="3" r:id="rId3"/>
+    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Clusters Grupos'!$A$1:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Evidente</t>
   </si>
@@ -373,6 +375,48 @@
   </si>
   <si>
     <t>Alta escolaridade</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>AUC-ROC</t>
+  </si>
+  <si>
+    <t>Average Precision</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>KNNClassifier</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>DummyClassifier</t>
+  </si>
+  <si>
+    <t>Quanto maior melhor</t>
+  </si>
+  <si>
+    <t>Quanto menor melhor</t>
+  </si>
+  <si>
+    <t>Referência</t>
   </si>
 </sst>
 </file>
@@ -402,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,7 +486,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A8AC-C8D4-48BC-BF06-1DD119FD1E35}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1330,101 +1385,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1433,4 +1488,164 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,21 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37C666E-D92B-4463-848F-7DEADC03F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39695B-E3CE-4419-B443-2B5554B78511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Insights Histplots" sheetId="1" r:id="rId1"/>
-    <sheet name="EDA Grupos" sheetId="2" r:id="rId2"/>
-    <sheet name="Clusters Grupos" sheetId="3" r:id="rId3"/>
-    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId4"/>
+    <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
+    <sheet name="Dicionário Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Dicionário Datasets" sheetId="7" r:id="rId3"/>
+    <sheet name="Dicionário Stats" sheetId="8" r:id="rId4"/>
+    <sheet name="Insights Histplots" sheetId="1" r:id="rId5"/>
+    <sheet name="EDA Grupos" sheetId="2" r:id="rId6"/>
+    <sheet name="Clusters Grupos" sheetId="3" r:id="rId7"/>
+    <sheet name="Avaliação dos Modelos" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Clusters Grupos'!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Avaliação dos Modelos'!$B$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Clusters Grupos'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Data'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dicionário Datasets'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dicionário Stats'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Insights Histplots'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="240">
   <si>
     <t>Evidente</t>
   </si>
@@ -417,6 +424,354 @@
   </si>
   <si>
     <t>Referência</t>
+  </si>
+  <si>
+    <t>Medida</t>
+  </si>
+  <si>
+    <t>Conceito</t>
+  </si>
+  <si>
+    <t>Definição</t>
+  </si>
+  <si>
+    <t>Básica</t>
+  </si>
+  <si>
+    <t>Tendência Central</t>
+  </si>
+  <si>
+    <t>Dispersão</t>
+  </si>
+  <si>
+    <t>Separatrizes</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Dados</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Desvio Médio</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2 = Mediana</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>AIQ = IQR</t>
+  </si>
+  <si>
+    <t>Limite Inferior</t>
+  </si>
+  <si>
+    <t>Limite Superior</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>Conjunto que contém todos os indivíduos, objetos ou elementos a serem estudados, que apresentam uma ou mais características em comum. Também conhecido como população ou universo</t>
+  </si>
+  <si>
+    <t>Característica ou atributo que se deseja observar, medir ou contar, a fim de se obter algum tipo de conclusão</t>
+  </si>
+  <si>
+    <t>Registros coletados sobre as variáveis de interesse</t>
+  </si>
+  <si>
+    <t>É a medida determinada pelo resultado da divisão do somatório dos números dados pela quantidade de números somados. E também há a média ponderada em que há pesos</t>
+  </si>
+  <si>
+    <t>É a medida que indica o valor central de um conjunto de dados organizados em ordem crescente ou decrescente, se houver qtd. ímpar de dados. Se a qtd. for par, é feita a média dos dois valores centrais</t>
+  </si>
+  <si>
+    <t>É a medida que consiste no valor observado com mais frequência em um conjunto de dados</t>
+  </si>
+  <si>
+    <t>É a medida que representa a diferença entre o maior e o menor valor em um conjunto de dados. A amplitude é uma medida de dispersão que é sensível a valores extremos, pois é calculada a partir de apenas dois valores</t>
+  </si>
+  <si>
+    <t>Desvio é a diferença entre cada valor observado e a média da variável. O desvio médio, ou desvio médio absoluto, é a média dos desvios, ou seja, a média aritmética dos valores absolutos dos desvios</t>
+  </si>
+  <si>
+    <t>É a medida que expressa o grau de dispersão de um conjunto de dados. Quanto mais próximo de 0 for o desvio padrão, mais homogêneo são os dados. O desvio padrão é definido como a raiz quadrada da variância</t>
+  </si>
+  <si>
+    <t>O Mínimo indica o menor valor do conjunto de dados</t>
+  </si>
+  <si>
+    <t>O 1º Quartil indica que 25% dos dados são inferiores a Q1 ou que 75% dos dados são superiores a Q1</t>
+  </si>
+  <si>
+    <t>O 2º Quartil corresponde à mediana, indicando que 50% dos dados são inferiores ou superiores a Q2</t>
+  </si>
+  <si>
+    <t>O 3º Quartil indica que 75% dos dados são inferiores a Q3 ou que 25% dos dados são superiores a Q3</t>
+  </si>
+  <si>
+    <t>O Máximo indica o maior valor do conjunto de dados</t>
+  </si>
+  <si>
+    <t>Intervalo interquartil, medido entre o 1º e o 3º quartil, refletindo a dispersão central dos dados, definido por Q3-Q1</t>
+  </si>
+  <si>
+    <t>Valor mínimo esperado de um conjunto, definido por Q1 – 1,5 x AIQ</t>
+  </si>
+  <si>
+    <t>Valor máximo esperado de um conjunto, definido por Q3 + 1,5 x AIQ</t>
+  </si>
+  <si>
+    <t>Dados que estão fora dos limites inferior ou superior, considerados anômalos</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>clustered</t>
+  </si>
+  <si>
+    <t>deploy_classification</t>
+  </si>
+  <si>
+    <t>deployed_classification</t>
+  </si>
+  <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>transformed</t>
+  </si>
+  <si>
+    <t>Dataset inicial do projeto</t>
+  </si>
+  <si>
+    <t>Dataset tratado, deixando somente as colunas importantes, sem informações redundantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset tratado, removendo somente as colunas realmente que não agregam valor </t>
+  </si>
+  <si>
+    <t>Dataset criado para fazer o gráfico de correlações</t>
+  </si>
+  <si>
+    <t>Dataset para testar o deploy do modelo de classificação</t>
+  </si>
+  <si>
+    <t>Dataset com o resultado do deploy do modelo de classificação</t>
+  </si>
+  <si>
+    <t>Dataset após aplicar o modelo de clusterização</t>
+  </si>
+  <si>
+    <t>Dataset após receber os pré processamentos</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Tipo de Dado</t>
+  </si>
+  <si>
+    <t>Dados pessoais</t>
+  </si>
+  <si>
+    <t>Dados das compras</t>
+  </si>
+  <si>
+    <t>Dados das campanhas</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Marital_Status</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Complain</t>
+  </si>
+  <si>
+    <t>Days_Since_Enrolled</t>
+  </si>
+  <si>
+    <t>MntRegularProds</t>
+  </si>
+  <si>
+    <t>MntGoldProds</t>
+  </si>
+  <si>
+    <t>HasAcceptedCmp</t>
+  </si>
+  <si>
+    <t>Response (Target)</t>
+  </si>
+  <si>
+    <t>Nível de educação do cliente</t>
+  </si>
+  <si>
+    <t>Se o cliente tem parceiro</t>
+  </si>
+  <si>
+    <t>Número de filhos do cliente</t>
+  </si>
+  <si>
+    <t>1 se o cliente tem filhos, 0 caso contrário</t>
+  </si>
+  <si>
+    <t>Idade do cliente</t>
+  </si>
+  <si>
+    <t>Faixa de idade do cliente</t>
+  </si>
+  <si>
+    <t>Renda anual da família do cliente</t>
+  </si>
+  <si>
+    <t>Número de dias desde a última compra do cliente</t>
+  </si>
+  <si>
+    <t>1 se o cliente reclamou nos últimos 2 anos, 0 caso contrário</t>
+  </si>
+  <si>
+    <t>Dias desde o cadastro do cliente</t>
+  </si>
+  <si>
+    <t>Anos desde o cadastro do cliente</t>
+  </si>
+  <si>
+    <t>Número de compras feitas com desconto</t>
+  </si>
+  <si>
+    <t>Número de visitas ao site da empresa no último mês</t>
+  </si>
+  <si>
+    <t>Número do total de compras do cliente</t>
+  </si>
+  <si>
+    <t>Valor gasto em produtos regulares nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Valor gasto em produtos gold nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Valor total gasto em produtos (gold + regulares) nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Total de campanhas aceitas pelo cliente</t>
+  </si>
+  <si>
+    <t>1 se o cliente aceitou a oferta de alguma campanha, 0 caso contrário</t>
+  </si>
+  <si>
+    <t>1 se o cliente aceitou a oferta na última campanha, 0 caso contrário</t>
+  </si>
+  <si>
+    <t>**Questionamento**</t>
+  </si>
+  <si>
+    <t>**Descrição**</t>
+  </si>
+  <si>
+    <t>**What?**&lt;br&gt;O que?</t>
+  </si>
+  <si>
+    <t>**Why?**&lt;br&gt;Por quê?</t>
+  </si>
+  <si>
+    <t>**How?**&lt;br&gt;Como?</t>
+  </si>
+  <si>
+    <t>**Where?**&lt;br&gt;Onde?</t>
+  </si>
+  <si>
+    <t>**When?**&lt;br&gt;Quando?</t>
+  </si>
+  <si>
+    <t>**Who?**&lt;br&gt;Quem?</t>
+  </si>
+  <si>
+    <t>**How Much?**&lt;br&gt;Quanto?</t>
+  </si>
+  <si>
+    <t>A partir dos dados de campanhas piloto, **construir um modelo para segmentação de clientes em campanhas de marketing**</t>
+  </si>
+  <si>
+    <t>O projeto será realizado através da **criação de modelos de clusterização e classificação para a segmentação de clientes**</t>
+  </si>
+  <si>
+    <t>Em uma **empresa de delivery**</t>
+  </si>
+  <si>
+    <t>**Matheus Resende** - Cientista de Dados</t>
+  </si>
+  <si>
+    <t>O investimento estimado para o projeto é de **6.720MU**</t>
+  </si>
+  <si>
+    <t>A data de início do projeto é **01/09/2024**, com um prazo estipulado para conclusão de **30 dias**. Dessa forma, a data prevista para conclusão do projeto é **30/09/2024**</t>
+  </si>
+  <si>
+    <t>O objetivo é que o modelo preveja o comportamento dos consumidores e torne possível aplicá-lo a toda a base de clientes, permitindo que a empresa identifique os clientes que têm maior probabilidade de aceitar a campanha, **otimizando assim os resultados das campanhas e tornando-as altamente lucrativas**</t>
   </si>
 </sst>
 </file>
@@ -478,11 +833,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +843,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,6 +1192,797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E25" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="3" width="126.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955BE73F-E79D-4EF1-877A-FFCD79D87FF0}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="177.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -1155,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1170,14 +2328,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1357,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A8AC-C8D4-48BC-BF06-1DD119FD1E35}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1490,20 +2648,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
-    <col min="2" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1530,117 +2688,117 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>118</v>
       </c>
     </row>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39695B-E3CE-4419-B443-2B5554B78511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238ABDF-20D7-4C8E-8C45-8F88C6E6772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -845,9 +845,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -858,6 +855,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,78 +1195,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="27.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2317,9 +2317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,14 +2328,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238ABDF-20D7-4C8E-8C45-8F88C6E6772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594F321-1484-4C87-9370-CEAF89A29F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -396,9 +396,6 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>AUC-ROC</t>
-  </si>
-  <si>
     <t>Average Precision</t>
   </si>
   <si>
@@ -772,6 +769,9 @@
   </si>
   <si>
     <t>O objetivo é que o modelo preveja o comportamento dos consumidores e torne possível aplicá-lo a toda a base de clientes, permitindo que a empresa identifique os clientes que têm maior probabilidade de aceitar a campanha, **otimizando assim os resultados das campanhas e tornando-as altamente lucrativas**</t>
+  </si>
+  <si>
+    <t>ROC-AUC</t>
   </si>
 </sst>
 </file>
@@ -1208,66 +1208,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1295,19 +1295,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,16 +1332,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,16 +1349,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,16 +1366,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,16 +1383,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,16 +1400,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,16 +1417,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,16 +1451,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,16 +1468,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,16 +1485,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,16 +1502,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,16 +1519,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,16 +1536,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,16 +1553,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,16 +1570,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,16 +1587,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,16 +1604,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,16 +1621,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,16 +1638,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1674,74 +1674,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1768,211 +1768,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -2652,9 +2652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,36 +2678,36 @@
         <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2715,22 +2715,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2738,22 +2738,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2761,22 +2761,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,22 +2784,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
